--- a/doc/Master Gantt.xlsx
+++ b/doc/Master Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craw\Desktop\School\UI\Year\2019\Spring 2019\CS 383\Project Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaidi\Documents\BeatRunner\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B26C9A5-745D-4D2A-9ECA-81D48DC8AC69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6563F5CD-F1E1-4484-9F8F-EE316B7BFA5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9340" tabRatio="768" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" tabRatio="768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>Meetings</t>
   </si>
@@ -385,6 +386,15 @@
       </rPr>
       <t>/Excess</t>
     </r>
+  </si>
+  <si>
+    <t>Initial Unity Setup</t>
+  </si>
+  <si>
+    <t>Initial Code Repo Setup</t>
+  </si>
+  <si>
+    <t>Request For Proposal</t>
   </si>
 </sst>
 </file>
@@ -861,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -990,15 +1000,14 @@
     <xf numFmtId="8" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="8" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,6 +1026,15 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,14 +1044,7 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,26 +1371,26 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="3.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="2.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1399,107 +1410,107 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="116" t="s">
+      <c r="C2" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="124"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="127"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="133"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="128" t="s">
+      <c r="G3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="118" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="L3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="130" t="s">
+      <c r="M3" s="118" t="s">
         <v>56</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="128" t="s">
+      <c r="O3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="129" t="s">
+      <c r="P3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="130" t="s">
+      <c r="Q3" s="118" t="s">
         <v>56</v>
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="10">
         <f>(G4+K4 +O4)</f>
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" ref="D4:D9" si="0">(H4+L4 +P4)</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E4" s="12">
         <f>(C4-D4)</f>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7">
         <f>(Gantt!$B11)*100</f>
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H4" s="8">
         <f>(Gantt!$C11)*100</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I4" s="9">
         <f>(G4-H4)</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="10">
@@ -1528,7 +1539,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="109" t="s">
         <v>43</v>
@@ -1585,7 +1596,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="109" t="s">
         <v>44</v>
@@ -1642,7 +1653,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="109" t="s">
         <v>45</v>
@@ -1699,7 +1710,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="109" t="s">
         <v>46</v>
@@ -1756,7 +1767,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="109" t="s">
         <v>47</v>
@@ -1813,35 +1824,35 @@
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="110">
         <f>SUM(C4:C9)</f>
-        <v>7600</v>
+        <v>8200</v>
       </c>
       <c r="D10" s="111">
         <f>SUM(D4:D9)</f>
-        <v>2000</v>
-      </c>
-      <c r="E10" s="133">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="121">
         <f>SUM(E4:E9)</f>
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="113">
         <f>SUM(G4:G9)</f>
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="H10" s="114">
         <f>SUM(H4:H9)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="115">
         <f>SUM(I4:I9)</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="113">
@@ -1871,7 +1882,7 @@
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1907,20 +1918,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="28" t="s">
         <v>35</v>
@@ -1965,7 +1976,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2054,12 +2065,12 @@
       </c>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B3" s="25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="98">
         <v>1</v>
@@ -2092,13 +2103,17 @@
       <c r="AC3" s="89"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="E4" s="33"/>
+        <v>58</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2125,14 +2140,15 @@
       <c r="AC4" s="89"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
       <c r="C5" s="18"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="33"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="90"/>
@@ -2158,14 +2174,16 @@
       <c r="AC5" s="89"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="134">
+        <v>2.5</v>
+      </c>
       <c r="C6" s="18"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="90"/>
@@ -2191,7 +2209,7 @@
       <c r="AC6" s="89"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
@@ -2224,7 +2242,7 @@
       <c r="AC7" s="89"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
@@ -2257,7 +2275,7 @@
       <c r="AC8" s="89"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -2290,7 +2308,7 @@
       <c r="AC9" s="89"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -2323,17 +2341,17 @@
       <c r="AC10" s="89"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="96">
         <f>SUM(B3:B10)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" s="97">
         <f>SUM(C3:C10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
@@ -2364,7 +2382,7 @@
       <c r="AD11" s="91"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>25</v>
       </c>
@@ -2399,7 +2417,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
@@ -2436,7 +2454,7 @@
       <c r="AC13" s="90"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
@@ -2469,7 +2487,7 @@
       <c r="AC14" s="90"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
@@ -2502,7 +2520,7 @@
       <c r="AC15" s="90"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2553,7 @@
       <c r="AC16" s="90"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
@@ -2568,7 +2586,7 @@
       <c r="AC17" s="90"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2619,7 @@
       <c r="AC18" s="90"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
@@ -2634,7 +2652,7 @@
       <c r="AC19" s="90"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>22</v>
       </c>
@@ -2667,7 +2685,7 @@
       <c r="AC20" s="90"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="92" t="s">
         <v>23</v>
       </c>
@@ -2708,7 +2726,7 @@
       <c r="AD21" s="91"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="103" t="s">
         <v>26</v>
       </c>
@@ -2743,7 +2761,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>15</v>
       </c>
@@ -2780,7 +2798,7 @@
       <c r="AC23" s="90"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>16</v>
       </c>
@@ -2813,7 +2831,7 @@
       <c r="AC24" s="90"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>17</v>
       </c>
@@ -2846,7 +2864,7 @@
       <c r="AC25" s="90"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
@@ -2879,7 +2897,7 @@
       <c r="AC26" s="90"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>19</v>
       </c>
@@ -2912,7 +2930,7 @@
       <c r="AC27" s="90"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +2963,7 @@
       <c r="AC28" s="90"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>21</v>
       </c>
@@ -2978,7 +2996,7 @@
       <c r="AC29" s="90"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>22</v>
       </c>
@@ -3011,7 +3029,7 @@
       <c r="AC30" s="90"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="92" t="s">
         <v>23</v>
       </c>
@@ -3052,7 +3070,7 @@
       <c r="AD31" s="91"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>27</v>
       </c>
@@ -3087,7 +3105,7 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>15</v>
       </c>
@@ -3124,7 +3142,7 @@
       <c r="AC33" s="90"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>16</v>
       </c>
@@ -3157,7 +3175,7 @@
       <c r="AC34" s="90"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>17</v>
       </c>
@@ -3190,7 +3208,7 @@
       <c r="AC35" s="90"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>18</v>
       </c>
@@ -3223,7 +3241,7 @@
       <c r="AC36" s="90"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>19</v>
       </c>
@@ -3256,7 +3274,7 @@
       <c r="AC37" s="90"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>20</v>
       </c>
@@ -3289,7 +3307,7 @@
       <c r="AC38" s="90"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>21</v>
       </c>
@@ -3322,7 +3340,7 @@
       <c r="AC39" s="90"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>22</v>
       </c>
@@ -3355,7 +3373,7 @@
       <c r="AC40" s="90"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="92" t="s">
         <v>23</v>
       </c>
@@ -3396,7 +3414,7 @@
       <c r="AD41" s="91"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
         <v>28</v>
       </c>
@@ -3431,7 +3449,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>15</v>
       </c>
@@ -3448,7 +3466,7 @@
       <c r="AC43" s="90"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>16</v>
       </c>
@@ -3461,7 +3479,7 @@
       <c r="AC44" s="90"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>17</v>
       </c>
@@ -3474,7 +3492,7 @@
       <c r="AC45" s="90"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>18</v>
       </c>
@@ -3487,7 +3505,7 @@
       <c r="AC46" s="90"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>19</v>
       </c>
@@ -3500,7 +3518,7 @@
       <c r="AC47" s="90"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>20</v>
       </c>
@@ -3513,7 +3531,7 @@
       <c r="AC48" s="90"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>21</v>
       </c>
@@ -3526,7 +3544,7 @@
       <c r="AC49" s="90"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>22</v>
       </c>
@@ -3539,7 +3557,7 @@
       <c r="AC50" s="90"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="92" t="s">
         <v>23</v>
       </c>
@@ -3580,7 +3598,7 @@
       <c r="AD51" s="91"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="103" t="s">
         <v>29</v>
       </c>
@@ -3615,7 +3633,7 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>15</v>
       </c>
@@ -3632,7 +3650,7 @@
       <c r="AC53" s="90"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>16</v>
       </c>
@@ -3645,7 +3663,7 @@
       <c r="AC54" s="90"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>17</v>
       </c>
@@ -3658,7 +3676,7 @@
       <c r="AC55" s="90"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>18</v>
       </c>
@@ -3671,7 +3689,7 @@
       <c r="AC56" s="90"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +3702,7 @@
       <c r="AC57" s="90"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>20</v>
       </c>
@@ -3697,7 +3715,7 @@
       <c r="AC58" s="90"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>21</v>
       </c>
@@ -3710,7 +3728,7 @@
       <c r="AC59" s="90"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
         <v>22</v>
       </c>
@@ -3723,7 +3741,7 @@
       <c r="AC60" s="90"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="92" t="s">
         <v>23</v>
       </c>
@@ -3764,7 +3782,7 @@
       <c r="AD61" s="91"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3797,7 +3815,7 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="3"/>
     </row>
-    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3830,17 +3848,17 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="106" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="28">
         <f>SUM(B61,B51,B41,B31,B21,B11)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C64" s="38">
         <f>SUM(C61,C51,C41,C31,C21,C11)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" s="46"/>
       <c r="E64" s="3"/>
@@ -3871,17 +3889,17 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="37">
         <f>B64*100</f>
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="C65" s="108">
         <f>C64*100</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D65" s="48"/>
       <c r="E65" s="3"/>
@@ -3912,13 +3930,13 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B66" s="41">
         <f>B64-C64</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C66" s="46"/>
       <c r="D66" s="3"/>
@@ -3950,13 +3968,13 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="44" t="s">
         <v>39</v>
       </c>
       <c r="B67" s="42">
         <f>B65-C65</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C67" s="47"/>
       <c r="D67" s="3"/>
@@ -3988,7 +4006,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4021,12 +4039,12 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
@@ -4044,9 +4062,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="49" t="s">
         <v>2</v>
@@ -4083,7 +4101,7 @@
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="51" t="s">
         <v>3</v>
@@ -4102,7 +4120,7 @@
       <c r="L2" s="52"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -4139,7 +4157,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>42</v>
       </c>
@@ -4161,7 +4179,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>43</v>
       </c>
@@ -4183,7 +4201,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>44</v>
       </c>
@@ -4205,7 +4223,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>45</v>
       </c>
@@ -4227,7 +4245,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>46</v>
       </c>
@@ -4249,7 +4267,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>47</v>
       </c>
@@ -4262,7 +4280,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>1</v>
       </c>
@@ -4312,7 +4330,7 @@
       </c>
       <c r="M10" s="56"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>48</v>
       </c>
@@ -4337,7 +4355,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>48</v>
       </c>
@@ -4364,20 +4382,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="19" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45"/>
       <c r="B1" s="88" t="s">
         <v>10</v>
@@ -4435,7 +4453,7 @@
       </c>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>42</v>
       </c>
@@ -4454,7 +4472,7 @@
       <c r="S2" s="87"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="16" t="s">
         <v>13</v>
@@ -4470,7 +4488,7 @@
       <c r="S3" s="87"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="16" t="s">
         <v>15</v>
@@ -4486,7 +4504,7 @@
       <c r="S4" s="87"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="67" t="s">
         <v>12</v>
@@ -4516,7 +4534,7 @@
       <c r="S5" s="65"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>43</v>
       </c>
@@ -4535,7 +4553,7 @@
       <c r="S6" s="87"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
@@ -4551,7 +4569,7 @@
       <c r="S7" s="87"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="16" t="s">
         <v>16</v>
@@ -4567,7 +4585,7 @@
       <c r="S8" s="87"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="67" t="s">
         <v>12</v>
@@ -4597,7 +4615,7 @@
       <c r="S9" s="65"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>44</v>
       </c>
@@ -4616,7 +4634,7 @@
       <c r="S10" s="87"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="16" t="s">
         <v>13</v>
@@ -4632,7 +4650,7 @@
       <c r="S11" s="87"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="74" t="s">
         <v>17</v>
@@ -4648,7 +4666,7 @@
       <c r="S12" s="87"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
         <v>18</v>
@@ -4664,7 +4682,7 @@
       <c r="S13" s="87"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="74" t="s">
         <v>19</v>
@@ -4680,7 +4698,7 @@
       <c r="S14" s="87"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="64" t="s">
         <v>12</v>
@@ -4710,7 +4728,7 @@
       <c r="S15" s="65"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>45</v>
       </c>
@@ -4729,7 +4747,7 @@
       <c r="S16" s="87"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="16" t="s">
         <v>13</v>
@@ -4745,7 +4763,7 @@
       <c r="S17" s="87"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="16" t="s">
         <v>20</v>
@@ -4761,7 +4779,7 @@
       <c r="S18" s="87"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="64" t="s">
         <v>12</v>
@@ -4791,7 +4809,7 @@
       <c r="S19" s="65"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>46</v>
       </c>
@@ -4810,7 +4828,7 @@
       <c r="S20" s="87"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>13</v>
@@ -4826,7 +4844,7 @@
       <c r="S21" s="87"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="16" t="s">
         <v>21</v>
@@ -4842,7 +4860,7 @@
       <c r="S22" s="87"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="64" t="s">
         <v>12</v>
@@ -4872,7 +4890,7 @@
       <c r="S23" s="65"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>47</v>
       </c>
@@ -4892,7 +4910,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="14"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="16" t="s">
         <v>13</v>
@@ -4908,7 +4926,7 @@
       <c r="S25" s="87"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="16" t="s">
         <v>22</v>
@@ -4924,7 +4942,7 @@
       <c r="S26" s="87"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="68" t="s">
         <v>12</v>
@@ -4954,7 +4972,7 @@
       <c r="S27" s="66"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="71" t="s">
         <v>1</v>
@@ -4984,7 +5002,7 @@
       <c r="S28" s="73"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="83" t="s">
         <v>30</v>
       </c>
@@ -5008,7 +5026,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="80"/>
       <c r="B30" s="81"/>
       <c r="C30" s="3"/>
@@ -5030,7 +5048,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
       <c r="B31" s="14" t="s">
         <v>52</v>
@@ -5054,7 +5072,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="77"/>
       <c r="B32" t="s">
         <v>1</v>
@@ -5078,7 +5096,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="76"/>
       <c r="B33" t="s">
         <v>12</v>
@@ -5102,7 +5120,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="78"/>
       <c r="B34" t="s">
         <v>53</v>
@@ -5126,7 +5144,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
